--- a/biology/Neurosciences/Noyau_rouge/Noyau_rouge.xlsx
+++ b/biology/Neurosciences/Noyau_rouge/Noyau_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau rouge est une structure paire située dans le tegmentum mésencéphalique, et se compose de deux parties appelées : néorubrum (rostral) et paléorubrum (caudal).
 Il reçoit des afférences en provenance du cervelet (noyaux interposés et latéral ou dentelé) par le pédoncule cérébelleux supérieur et du cortex cérébral sensorimoteur et associatif. 
